--- a/bioSample/bioSample_0769.xlsx
+++ b/bioSample/bioSample_0769.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_0769.xlsx
+++ b/bioSample/bioSample_0769.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="30">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -124,6 +124,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -208,7 +209,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,6 +864,9 @@
       <c r="I20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J20" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -892,6 +896,9 @@
       <c r="I21" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J21" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -920,6 +927,9 @@
       </c>
       <c r="I22" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/bioSample/bioSample_0769.xlsx
+++ b/bioSample/bioSample_0769.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467306DC-D836-8948-9E43-1EC329ECD02E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FD7341-FA9C-6749-B017-11E1DB7E6219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,10 +133,10 @@
     <t>CNAG_00440</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>DMEM</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -578,7 +578,7 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -613,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -648,7 +648,7 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -686,7 +686,7 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -727,7 +727,7 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -815,7 +815,7 @@
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -865,7 +865,7 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -915,7 +915,7 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -965,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
@@ -1015,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
@@ -1065,7 +1065,7 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
@@ -1106,7 +1106,7 @@
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
@@ -1141,7 +1141,7 @@
         <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
@@ -1176,7 +1176,7 @@
         <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
@@ -1214,7 +1214,7 @@
         <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
@@ -1255,7 +1255,7 @@
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
@@ -1296,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
@@ -1337,7 +1337,7 @@
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
@@ -1378,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>
